--- a/raw_data/20200818_saline/20200818_Sensor0_Test_52.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_52.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1580BF5-E345-44BF-80A8-DA178465D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>45902.939753</v>
+        <v>45902.939752999999</v>
       </c>
       <c r="B2" s="1">
         <v>12.750817</v>
       </c>
       <c r="C2" s="1">
-        <v>906.501000</v>
+        <v>906.50099999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-175.111000</v>
+        <v>-175.11099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45913.359212</v>
+        <v>45913.359212000003</v>
       </c>
       <c r="G2" s="1">
-        <v>12.753711</v>
+        <v>12.753710999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>921.177000</v>
+        <v>921.17700000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.721000</v>
+        <v>-150.721</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>45923.466686</v>
       </c>
       <c r="L2" s="1">
-        <v>12.756519</v>
+        <v>12.756519000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.081000</v>
+        <v>942.08100000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.801000</v>
+        <v>-111.801</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>45933.992289</v>
+        <v>45933.992289000002</v>
       </c>
       <c r="Q2" s="1">
         <v>12.759442</v>
       </c>
       <c r="R2" s="1">
-        <v>949.048000</v>
+        <v>949.048</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.929400</v>
+        <v>-98.929400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>45944.548644</v>
+        <v>45944.548644000002</v>
       </c>
       <c r="V2" s="1">
         <v>12.762375</v>
       </c>
       <c r="W2" s="1">
-        <v>956.426000</v>
+        <v>956.42600000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.418100</v>
+        <v>-87.418099999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>45955.290996</v>
+        <v>45955.290996000003</v>
       </c>
       <c r="AA2" s="1">
         <v>12.765359</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.676000</v>
+        <v>964.67600000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.455600</v>
+        <v>-79.455600000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>45965.786838</v>
@@ -571,58 +987,58 @@
         <v>12.768274</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.095000</v>
+        <v>970.09500000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.688700</v>
+        <v>-79.688699999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>45976.203320</v>
+        <v>45976.203320000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.771168</v>
+        <v>12.771167999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.488000</v>
+        <v>978.48800000000006</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.852600</v>
+        <v>-87.852599999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>45986.398587</v>
+        <v>45986.398587000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.774000</v>
+        <v>12.773999999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.901000</v>
+        <v>987.90099999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.079000</v>
+        <v>-103.07899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>45997.452429</v>
+        <v>45997.452428999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.777070</v>
+        <v>12.77707</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.458000</v>
+        <v>999.45799999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.921000</v>
+        <v>-124.92100000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>46008.867885</v>
@@ -631,300 +1047,300 @@
         <v>12.780241</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.890000</v>
+        <v>-143.88999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>46019.553203</v>
+        <v>46019.553203000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.783209</v>
+        <v>12.783208999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1054.680000</v>
+        <v>1054.68</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.590000</v>
+        <v>-229.59</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>46030.248402</v>
+        <v>46030.248401999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.786180</v>
+        <v>12.78618</v>
       </c>
       <c r="BK2" s="1">
-        <v>1134.430000</v>
+        <v>1134.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.236000</v>
+        <v>-367.23599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>46040.590000</v>
+        <v>46040.59</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.789053</v>
+        <v>12.789052999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.360000</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.551000</v>
+        <v>-580.55100000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>46050.926615</v>
+        <v>46050.926614999997</v>
       </c>
       <c r="BT2" s="1">
         <v>12.791924</v>
       </c>
       <c r="BU2" s="1">
-        <v>1414.450000</v>
+        <v>1414.45</v>
       </c>
       <c r="BV2" s="1">
-        <v>-808.897000</v>
+        <v>-808.89700000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>46062.039976</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.795011</v>
+        <v>12.795011000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1047.880000</v>
+        <v>-1047.8800000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>46073.667721</v>
+        <v>46073.667720999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.798241</v>
+        <v>12.798241000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1992.440000</v>
+        <v>1992.44</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1606.030000</v>
+        <v>-1606.03</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>45903.343036</v>
+        <v>45903.343035999998</v>
       </c>
       <c r="B3" s="1">
-        <v>12.750929</v>
+        <v>12.750928999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>906.642000</v>
+        <v>906.64200000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-175.208000</v>
+        <v>-175.208</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>45913.729724</v>
+        <v>45913.729723999997</v>
       </c>
       <c r="G3" s="1">
         <v>12.753814</v>
       </c>
       <c r="H3" s="1">
-        <v>920.784000</v>
+        <v>920.78399999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-150.712000</v>
+        <v>-150.71199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>45923.851087</v>
+        <v>45923.851087000003</v>
       </c>
       <c r="L3" s="1">
         <v>12.756625</v>
       </c>
       <c r="M3" s="1">
-        <v>941.979000</v>
+        <v>941.97900000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.673000</v>
+        <v>-111.673</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>45934.352383</v>
+        <v>45934.352382999998</v>
       </c>
       <c r="Q3" s="1">
         <v>12.759542</v>
       </c>
       <c r="R3" s="1">
-        <v>949.148000</v>
+        <v>949.14800000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.962200</v>
+        <v>-98.962199999999996</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>45945.262913</v>
+        <v>45945.262912999999</v>
       </c>
       <c r="V3" s="1">
         <v>12.762573</v>
       </c>
       <c r="W3" s="1">
-        <v>956.448000</v>
+        <v>956.44799999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.289300</v>
+        <v>-87.289299999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>45955.632740</v>
+        <v>45955.632740000001</v>
       </c>
       <c r="AA3" s="1">
         <v>12.765454</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.622000</v>
+        <v>964.62199999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.328900</v>
+        <v>-79.328900000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>45966.132081</v>
+        <v>45966.132081000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.768370</v>
+        <v>12.768370000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.144000</v>
+        <v>970.14400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.523100</v>
+        <v>-79.523099999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>45976.555512</v>
+        <v>45976.555511999999</v>
       </c>
       <c r="AK3" s="1">
         <v>12.771265</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.488000</v>
+        <v>978.48800000000006</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.826300</v>
+        <v>-87.826300000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>45987.116794</v>
+        <v>45987.116794000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.774199</v>
+        <v>12.774198999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.910000</v>
+        <v>987.91</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.093000</v>
+        <v>-103.093</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>45998.169186</v>
+        <v>45998.169185999999</v>
       </c>
       <c r="AU3" s="1">
         <v>12.777269</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.434000</v>
+        <v>999.43399999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.925000</v>
+        <v>-124.925</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>46009.289452</v>
+        <v>46009.289451999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.780358</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.883000</v>
+        <v>-143.88300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>46019.914750</v>
+        <v>46019.914750000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.783310</v>
+        <v>12.78331</v>
       </c>
       <c r="BF3" s="1">
-        <v>1054.670000</v>
+        <v>1054.67</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.613000</v>
+        <v>-229.613</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>46030.630126</v>
+        <v>46030.630125999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.786286</v>
       </c>
       <c r="BK3" s="1">
-        <v>1134.450000</v>
+        <v>1134.45</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.235000</v>
+        <v>-367.23500000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>46040.998196</v>
@@ -933,13 +1349,13 @@
         <v>12.789166</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.370000</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.559000</v>
+        <v>-580.55899999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>46051.350692</v>
@@ -948,135 +1364,135 @@
         <v>12.792042</v>
       </c>
       <c r="BU3" s="1">
-        <v>1414.520000</v>
+        <v>1414.52</v>
       </c>
       <c r="BV3" s="1">
-        <v>-808.905000</v>
+        <v>-808.90499999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>46062.510689</v>
+        <v>46062.510689000002</v>
       </c>
       <c r="BY3" s="1">
         <v>12.795142</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1578.160000</v>
+        <v>1578.16</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1047.910000</v>
+        <v>-1047.9100000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>46073.929607</v>
+        <v>46073.929606999998</v>
       </c>
       <c r="CD3" s="1">
         <v>12.798314</v>
       </c>
       <c r="CE3" s="1">
-        <v>1992.800000</v>
+        <v>1992.8</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1606.000000</v>
+        <v>-1606</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>45903.683290</v>
+        <v>45903.683290000001</v>
       </c>
       <c r="B4" s="1">
         <v>12.751023</v>
       </c>
       <c r="C4" s="1">
-        <v>906.543000</v>
+        <v>906.54300000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-175.318000</v>
+        <v>-175.31800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>45914.070010</v>
+        <v>45914.070010000003</v>
       </c>
       <c r="G4" s="1">
-        <v>12.753908</v>
+        <v>12.753907999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>920.622000</v>
+        <v>920.62199999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-150.787000</v>
+        <v>-150.78700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>45924.537052</v>
       </c>
       <c r="L4" s="1">
-        <v>12.756816</v>
+        <v>12.756816000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>942.127000</v>
+        <v>942.12699999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.724000</v>
+        <v>-111.724</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>45935.060174</v>
+        <v>45935.060173999998</v>
       </c>
       <c r="Q4" s="1">
         <v>12.759739</v>
       </c>
       <c r="R4" s="1">
-        <v>949.110000</v>
+        <v>949.11</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.957500</v>
+        <v>-98.957499999999996</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>45945.609618</v>
+        <v>45945.609618000002</v>
       </c>
       <c r="V4" s="1">
-        <v>12.762669</v>
+        <v>12.762669000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>956.373000</v>
+        <v>956.37300000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.379500</v>
+        <v>-87.379499999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>45955.983907</v>
+        <v>45955.983907000002</v>
       </c>
       <c r="AA4" s="1">
         <v>12.765551</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.675000</v>
+        <v>964.67499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.506100</v>
+        <v>-79.506100000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>45966.476316</v>
@@ -1085,118 +1501,118 @@
         <v>12.768466</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.057000</v>
+        <v>970.05700000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.567900</v>
+        <v>-79.567899999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>45977.217640</v>
+        <v>45977.217640000003</v>
       </c>
       <c r="AK4" s="1">
         <v>12.771449</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.501000</v>
+        <v>978.50099999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.822400</v>
+        <v>-87.822400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>45987.522061</v>
+        <v>45987.522061000003</v>
       </c>
       <c r="AP4" s="1">
         <v>12.774312</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.913000</v>
+        <v>987.91300000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.088000</v>
+        <v>-103.08799999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>45998.584794</v>
+        <v>45998.584794000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>12.777385</v>
+        <v>12.777385000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.459000</v>
+        <v>999.45899999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.910000</v>
+        <v>-124.91</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>46009.647563</v>
+        <v>46009.647562999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.780458</v>
+        <v>12.780457999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.868000</v>
+        <v>-143.86799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>46020.274384</v>
+        <v>46020.274383999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>12.783410</v>
+        <v>12.78341</v>
       </c>
       <c r="BF4" s="1">
-        <v>1054.680000</v>
+        <v>1054.68</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.593000</v>
+        <v>-229.59299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>46031.003312</v>
+        <v>46031.003312000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.786390</v>
+        <v>12.786390000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.268000</v>
+        <v>-367.26799999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>46041.419330</v>
+        <v>46041.419329999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.789283</v>
+        <v>12.789282999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.380000</v>
+        <v>1266.3800000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.569000</v>
+        <v>-580.56899999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>46051.764358</v>
@@ -1205,437 +1621,437 @@
         <v>12.792157</v>
       </c>
       <c r="BU4" s="1">
-        <v>1414.490000</v>
+        <v>1414.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-808.903000</v>
+        <v>-808.90300000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>46062.943189</v>
+        <v>46062.943188999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.795262</v>
+        <v>12.795261999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1578.220000</v>
+        <v>1578.22</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1047.880000</v>
+        <v>-1047.8800000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>46074.451366</v>
+        <v>46074.451366000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.798459</v>
+        <v>12.798458999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1991.090000</v>
+        <v>1991.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1606.440000</v>
+        <v>-1606.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>45904.366743</v>
+        <v>45904.366742999999</v>
       </c>
       <c r="B5" s="1">
         <v>12.751213</v>
       </c>
       <c r="C5" s="1">
-        <v>906.636000</v>
+        <v>906.63599999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-175.162000</v>
+        <v>-175.16200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>45914.763423</v>
+        <v>45914.763422999997</v>
       </c>
       <c r="G5" s="1">
         <v>12.754101</v>
       </c>
       <c r="H5" s="1">
-        <v>920.843000</v>
+        <v>920.84299999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-150.377000</v>
+        <v>-150.37700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>45924.888717</v>
+        <v>45924.888717000002</v>
       </c>
       <c r="L5" s="1">
         <v>12.756914</v>
       </c>
       <c r="M5" s="1">
-        <v>942.051000</v>
+        <v>942.05100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.845000</v>
+        <v>-111.845</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>45935.407374</v>
+        <v>45935.407374000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.759835</v>
+        <v>12.759835000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>949.111000</v>
+        <v>949.11099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.014300</v>
+        <v>-99.014300000000006</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>45945.950337</v>
+        <v>45945.950337000002</v>
       </c>
       <c r="V5" s="1">
-        <v>12.762764</v>
+        <v>12.762764000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>956.514000</v>
+        <v>956.51400000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.340800</v>
+        <v>-87.340800000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>45956.641107</v>
+        <v>45956.641107000003</v>
       </c>
       <c r="AA5" s="1">
         <v>12.765734</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.675000</v>
+        <v>964.67499999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.435900</v>
+        <v>-79.435900000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>45967.133973</v>
+        <v>45967.133973000004</v>
       </c>
       <c r="AF5" s="1">
-        <v>12.768648</v>
+        <v>12.768648000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.055000</v>
+        <v>970.05499999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.457500</v>
+        <v>-79.457499999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>45977.601046</v>
+        <v>45977.601046000003</v>
       </c>
       <c r="AK5" s="1">
         <v>12.771556</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.498000</v>
+        <v>978.49800000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.846800</v>
+        <v>-87.846800000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>45987.907416</v>
+        <v>45987.907416000002</v>
       </c>
       <c r="AP5" s="1">
         <v>12.774419</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.900000</v>
+        <v>987.9</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.074000</v>
+        <v>-103.074</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>45998.968204</v>
+        <v>45998.968203999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.777491</v>
+        <v>12.777490999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.432000</v>
+        <v>999.43200000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.932000</v>
+        <v>-124.932</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>46009.992283</v>
       </c>
       <c r="AZ5" s="1">
-        <v>12.780553</v>
+        <v>12.780552999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.867000</v>
+        <v>-143.86699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>46020.711330</v>
+        <v>46020.711329999998</v>
       </c>
       <c r="BE5" s="1">
         <v>12.783531</v>
       </c>
       <c r="BF5" s="1">
-        <v>1054.720000</v>
+        <v>1054.72</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.589000</v>
+        <v>-229.589</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>46031.424943</v>
+        <v>46031.424942999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.786507</v>
       </c>
       <c r="BK5" s="1">
-        <v>1134.390000</v>
+        <v>1134.3900000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.262000</v>
+        <v>-367.262</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>46041.809651</v>
+        <v>46041.809651000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.789392</v>
+        <v>12.789391999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.410000</v>
+        <v>1266.4100000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.617000</v>
+        <v>-580.61699999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>46052.195876</v>
+        <v>46052.195875999998</v>
       </c>
       <c r="BT5" s="1">
         <v>12.792277</v>
       </c>
       <c r="BU5" s="1">
-        <v>1414.530000</v>
+        <v>1414.53</v>
       </c>
       <c r="BV5" s="1">
-        <v>-808.791000</v>
+        <v>-808.79100000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>46063.365815</v>
+        <v>46063.365814999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.795379</v>
+        <v>12.795379000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1578.050000</v>
+        <v>1578.05</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1047.850000</v>
+        <v>-1047.8499999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>46074.968198</v>
+        <v>46074.968198000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>12.798602</v>
+        <v>12.798602000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1991.670000</v>
+        <v>1991.67</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1607.890000</v>
+        <v>-1607.89</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>45904.710998</v>
+        <v>45904.710998000002</v>
       </c>
       <c r="B6" s="1">
-        <v>12.751309</v>
+        <v>12.751308999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.638000</v>
+        <v>906.63800000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-175.234000</v>
+        <v>-175.23400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>45915.108105</v>
+        <v>45915.108104999999</v>
       </c>
       <c r="G6" s="1">
         <v>12.754197</v>
       </c>
       <c r="H6" s="1">
-        <v>921.048000</v>
+        <v>921.048</v>
       </c>
       <c r="I6" s="1">
-        <v>-150.146000</v>
+        <v>-150.14599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>45925.230459</v>
+        <v>45925.230458999999</v>
       </c>
       <c r="L6" s="1">
-        <v>12.757008</v>
+        <v>12.757008000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>942.006000</v>
+        <v>942.00599999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.808000</v>
+        <v>-111.80800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>45936.077005</v>
+        <v>45936.077004999999</v>
       </c>
       <c r="Q6" s="1">
         <v>12.760021</v>
       </c>
       <c r="R6" s="1">
-        <v>949.070000</v>
+        <v>949.07</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.009600</v>
+        <v>-99.009600000000006</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>45946.622913</v>
+        <v>45946.622912999999</v>
       </c>
       <c r="V6" s="1">
-        <v>12.762951</v>
+        <v>12.762950999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>956.408000</v>
+        <v>956.40800000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.346300</v>
+        <v>-87.346299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>45957.028481</v>
+        <v>45957.028481000001</v>
       </c>
       <c r="AA6" s="1">
         <v>12.765841</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.665000</v>
+        <v>964.66499999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.427900</v>
+        <v>-79.427899999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>45967.504523</v>
+        <v>45967.504523000003</v>
       </c>
       <c r="AF6" s="1">
         <v>12.768751</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.178000</v>
+        <v>970.178</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.468600</v>
+        <v>-79.468599999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>45977.946263</v>
+        <v>45977.946262999998</v>
       </c>
       <c r="AK6" s="1">
         <v>12.771652</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.461000</v>
+        <v>978.46100000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.807100</v>
+        <v>-87.807100000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>45988.287886</v>
+        <v>45988.287885999998</v>
       </c>
       <c r="AP6" s="1">
         <v>12.774524</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.931000</v>
+        <v>987.93100000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.079000</v>
+        <v>-103.07899999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>45999.330317</v>
@@ -1644,180 +2060,180 @@
         <v>12.777592</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.448000</v>
+        <v>999.44799999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.925000</v>
+        <v>-124.925</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>46010.412395</v>
+        <v>46010.412394999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.780670</v>
+        <v>12.780670000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.869000</v>
+        <v>-143.869</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>46020.999533</v>
+        <v>46020.999533000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.783611</v>
+        <v>12.783611000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1054.680000</v>
+        <v>1054.68</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.602000</v>
+        <v>-229.602</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>46031.774129</v>
+        <v>46031.774128999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>12.786604</v>
+        <v>12.786604000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1134.430000</v>
+        <v>1134.43</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.278000</v>
+        <v>-367.27800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>46042.231281</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.789509</v>
+        <v>12.789509000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.390000</v>
+        <v>1266.3900000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.575000</v>
+        <v>-580.57500000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>46052.628885</v>
+        <v>46052.628884999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.792397</v>
+        <v>12.792396999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1414.500000</v>
+        <v>1414.5</v>
       </c>
       <c r="BV6" s="1">
-        <v>-808.762000</v>
+        <v>-808.76199999999994</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>46063.785931</v>
+        <v>46063.785930999999</v>
       </c>
       <c r="BY6" s="1">
         <v>12.795496</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1578.210000</v>
+        <v>1578.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1047.810000</v>
+        <v>-1047.81</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>46075.486554</v>
+        <v>46075.486554000003</v>
       </c>
       <c r="CD6" s="1">
         <v>12.798746</v>
       </c>
       <c r="CE6" s="1">
-        <v>1992.800000</v>
+        <v>1992.8</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1607.370000</v>
+        <v>-1607.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>45905.051718</v>
+        <v>45905.051718000002</v>
       </c>
       <c r="B7" s="1">
         <v>12.751403</v>
       </c>
       <c r="C7" s="1">
-        <v>906.572000</v>
+        <v>906.572</v>
       </c>
       <c r="D7" s="1">
-        <v>-174.915000</v>
+        <v>-174.91499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>45915.449389</v>
+        <v>45915.449389000001</v>
       </c>
       <c r="G7" s="1">
         <v>12.754291</v>
       </c>
       <c r="H7" s="1">
-        <v>921.068000</v>
+        <v>921.06799999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-150.625000</v>
+        <v>-150.625</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>45925.893156</v>
+        <v>45925.893155999998</v>
       </c>
       <c r="L7" s="1">
-        <v>12.757193</v>
+        <v>12.757192999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.124000</v>
+        <v>942.12400000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.698000</v>
+        <v>-111.69799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>45936.451950</v>
+        <v>45936.451950000002</v>
       </c>
       <c r="Q7" s="1">
         <v>12.760126</v>
       </c>
       <c r="R7" s="1">
-        <v>949.078000</v>
+        <v>949.07799999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.016800</v>
+        <v>-99.016800000000003</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>45946.987643</v>
@@ -1826,88 +2242,88 @@
         <v>12.763052</v>
       </c>
       <c r="W7" s="1">
-        <v>956.357000</v>
+        <v>956.35699999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.384200</v>
+        <v>-87.384200000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>45957.377170</v>
+        <v>45957.37717</v>
       </c>
       <c r="AA7" s="1">
         <v>12.765938</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.591000</v>
+        <v>964.59100000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.441400</v>
+        <v>-79.441400000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>45967.848745</v>
+        <v>45967.848745000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.768847</v>
+        <v>12.768846999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.097000</v>
+        <v>970.09699999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.621000</v>
+        <v>-79.620999999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>45978.300406</v>
+        <v>45978.300406000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.771750</v>
+        <v>12.771750000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.482000</v>
+        <v>978.48199999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.856300</v>
+        <v>-87.856300000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>45988.722345</v>
+        <v>45988.722345000002</v>
       </c>
       <c r="AP7" s="1">
         <v>12.774645</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.906000</v>
+        <v>987.90599999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.088000</v>
+        <v>-103.08799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>45999.755353</v>
       </c>
       <c r="AU7" s="1">
-        <v>12.777710</v>
+        <v>12.777710000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.452000</v>
+        <v>999.452</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.932000</v>
+        <v>-124.932</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>46010.721931</v>
@@ -1916,58 +2332,58 @@
         <v>12.780756</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.160000</v>
+        <v>1009.16</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.874000</v>
+        <v>-143.874</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>46021.361580</v>
+        <v>46021.361579999997</v>
       </c>
       <c r="BE7" s="1">
         <v>12.783712</v>
       </c>
       <c r="BF7" s="1">
-        <v>1054.670000</v>
+        <v>1054.67</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.603000</v>
+        <v>-229.60300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>46032.148574</v>
+        <v>46032.148573999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>12.786708</v>
+        <v>12.786708000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1134.440000</v>
+        <v>1134.44</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.259000</v>
+        <v>-367.25900000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>46042.629100</v>
+        <v>46042.629099999998</v>
       </c>
       <c r="BO7" s="1">
         <v>12.789619</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.390000</v>
+        <v>1266.3900000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.585000</v>
+        <v>-580.58500000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>46053.465139</v>
@@ -1976,46 +2392,46 @@
         <v>12.792629</v>
       </c>
       <c r="BU7" s="1">
-        <v>1414.590000</v>
+        <v>1414.59</v>
       </c>
       <c r="BV7" s="1">
-        <v>-808.798000</v>
+        <v>-808.798</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>46064.241256</v>
+        <v>46064.241256000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.795623</v>
+        <v>12.795623000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1578.020000</v>
+        <v>1578.02</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1048.040000</v>
+        <v>-1048.04</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>46076.007316</v>
+        <v>46076.007316000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.798891</v>
+        <v>12.798890999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1992.620000</v>
+        <v>1992.62</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1607.670000</v>
+        <v>-1607.67</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>45905.705941</v>
       </c>
@@ -2023,238 +2439,238 @@
         <v>12.751585</v>
       </c>
       <c r="C8" s="1">
-        <v>906.658000</v>
+        <v>906.65800000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-175.195000</v>
+        <v>-175.19499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>45916.110025</v>
+        <v>45916.110025000002</v>
       </c>
       <c r="G8" s="1">
-        <v>12.754475</v>
+        <v>12.754474999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>921.332000</v>
+        <v>921.33199999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.517000</v>
+        <v>-150.517</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>45926.268587</v>
+        <v>45926.268586999999</v>
       </c>
       <c r="L8" s="1">
-        <v>12.757297</v>
+        <v>12.757296999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>942.112000</v>
+        <v>942.11199999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.780000</v>
+        <v>-111.78</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>45936.801132</v>
+        <v>45936.801132000001</v>
       </c>
       <c r="Q8" s="1">
         <v>12.760223</v>
       </c>
       <c r="R8" s="1">
-        <v>949.102000</v>
+        <v>949.10199999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.992900</v>
+        <v>-98.992900000000006</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>45947.333679</v>
+        <v>45947.333679000003</v>
       </c>
       <c r="V8" s="1">
-        <v>12.763148</v>
+        <v>12.763147999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>956.523000</v>
+        <v>956.52300000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.398600</v>
+        <v>-87.398600000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>45957.727377</v>
+        <v>45957.727377000003</v>
       </c>
       <c r="AA8" s="1">
         <v>12.766035</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.671000</v>
+        <v>964.67100000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.395300</v>
+        <v>-79.395300000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>45968.273320</v>
+        <v>45968.27332</v>
       </c>
       <c r="AF8" s="1">
         <v>12.768965</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.112000</v>
+        <v>970.11199999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.606000</v>
+        <v>-79.605999999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>45978.722006</v>
+        <v>45978.722006000004</v>
       </c>
       <c r="AK8" s="1">
         <v>12.771867</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.489000</v>
+        <v>978.48900000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.809000</v>
+        <v>-87.808999999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>45989.008536</v>
+        <v>45989.008536000001</v>
       </c>
       <c r="AP8" s="1">
         <v>12.774725</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.928000</v>
+        <v>987.928</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.066000</v>
+        <v>-103.066</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>46000.061385</v>
+        <v>46000.061385000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.777795</v>
+        <v>12.777794999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.429000</v>
+        <v>999.42899999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.897000</v>
+        <v>-124.89700000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>46011.080507</v>
+        <v>46011.080506999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>12.780856</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.150000</v>
+        <v>1009.15</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.883000</v>
+        <v>-143.88300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>46021.722204</v>
+        <v>46021.722203999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.783812</v>
+        <v>12.783811999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1054.700000</v>
+        <v>1054.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.615000</v>
+        <v>-229.61500000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>46032.523588</v>
+        <v>46032.523587999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.786812</v>
+        <v>12.786811999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1134.410000</v>
+        <v>1134.4100000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.262000</v>
+        <v>-367.262</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>46043.048201</v>
+        <v>46043.048200999998</v>
       </c>
       <c r="BO8" s="1">
         <v>12.789736</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.340000</v>
+        <v>1266.3399999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.602000</v>
+        <v>-580.60199999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>46053.898673</v>
+        <v>46053.898673000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.792750</v>
+        <v>12.79275</v>
       </c>
       <c r="BU8" s="1">
-        <v>1414.670000</v>
+        <v>1414.67</v>
       </c>
       <c r="BV8" s="1">
-        <v>-808.773000</v>
+        <v>-808.77300000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>46064.659348</v>
+        <v>46064.659348000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>12.795739</v>
+        <v>12.795738999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>46076.558869</v>
@@ -2263,180 +2679,180 @@
         <v>12.799044</v>
       </c>
       <c r="CE8" s="1">
-        <v>1991.580000</v>
+        <v>1991.58</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1607.910000</v>
+        <v>-1607.91</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>45906.078466</v>
+        <v>45906.078465999999</v>
       </c>
       <c r="B9" s="1">
         <v>12.751688</v>
       </c>
       <c r="C9" s="1">
-        <v>906.566000</v>
+        <v>906.56600000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-175.063000</v>
+        <v>-175.06299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>45916.485035</v>
+        <v>45916.485034999998</v>
       </c>
       <c r="G9" s="1">
         <v>12.754579</v>
       </c>
       <c r="H9" s="1">
-        <v>921.052000</v>
+        <v>921.05200000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.275000</v>
+        <v>-150.27500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>45926.614795</v>
+        <v>45926.614795000001</v>
       </c>
       <c r="L9" s="1">
         <v>12.757393</v>
       </c>
       <c r="M9" s="1">
-        <v>942.097000</v>
+        <v>942.09699999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.689000</v>
+        <v>-111.68899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>45937.148334</v>
+        <v>45937.148333999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.760319</v>
+        <v>12.760319000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>949.122000</v>
+        <v>949.12199999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.010600</v>
+        <v>-99.010599999999997</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>45947.677933</v>
+        <v>45947.677932999999</v>
       </c>
       <c r="V9" s="1">
         <v>12.763244</v>
       </c>
       <c r="W9" s="1">
-        <v>956.375000</v>
+        <v>956.375</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.409300</v>
+        <v>-87.409300000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>45958.146999</v>
+        <v>45958.146998999997</v>
       </c>
       <c r="AA9" s="1">
         <v>12.766152</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.737000</v>
+        <v>964.73699999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.404100</v>
+        <v>-79.4041</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>45968.551540</v>
+        <v>45968.55154</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.769042</v>
+        <v>12.769042000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.127000</v>
+        <v>970.12699999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.546100</v>
+        <v>-79.546099999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>45979.000758</v>
+        <v>45979.000758000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.771945</v>
+        <v>12.771945000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.478000</v>
+        <v>978.47799999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.824900</v>
+        <v>-87.8249</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>45989.367158</v>
+        <v>45989.367158000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.774824</v>
+        <v>12.774824000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.910000</v>
+        <v>987.91</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.080000</v>
+        <v>-103.08</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>46000.440824</v>
+        <v>46000.440823999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.777900</v>
+        <v>12.777900000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.457000</v>
+        <v>999.45699999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.894000</v>
+        <v>-124.89400000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>46011.439115</v>
+        <v>46011.439115000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.780955</v>
+        <v>12.780955000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.861000</v>
+        <v>-143.86099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>46022.446827</v>
@@ -2445,120 +2861,120 @@
         <v>12.784013</v>
       </c>
       <c r="BF9" s="1">
-        <v>1054.710000</v>
+        <v>1054.71</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.587000</v>
+        <v>-229.58699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>46033.274494</v>
+        <v>46033.274493999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.787021</v>
+        <v>12.787020999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1134.430000</v>
+        <v>1134.43</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.291000</v>
+        <v>-367.291</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>46043.446482</v>
+        <v>46043.446481999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.789846</v>
+        <v>12.789846000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.400000</v>
+        <v>1266.4000000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.627000</v>
+        <v>-580.62699999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>46054.330695</v>
+        <v>46054.330694999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.792870</v>
+        <v>12.792870000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1414.690000</v>
+        <v>1414.69</v>
       </c>
       <c r="BV9" s="1">
-        <v>-808.816000</v>
+        <v>-808.81600000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>46065.107266</v>
+        <v>46065.107265999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.795863</v>
+        <v>12.795863000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1578.130000</v>
+        <v>1578.13</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1047.960000</v>
+        <v>-1047.96</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>46077.394626</v>
+        <v>46077.394626000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.799276</v>
+        <v>12.799276000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1992.860000</v>
+        <v>1992.86</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1607.320000</v>
+        <v>-1607.32</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>45906.421172</v>
+        <v>45906.421172000002</v>
       </c>
       <c r="B10" s="1">
-        <v>12.751784</v>
+        <v>12.751784000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>906.591000</v>
+        <v>906.59100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-175.190000</v>
+        <v>-175.19</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>45916.833720</v>
+        <v>45916.833720000002</v>
       </c>
       <c r="G10" s="1">
         <v>12.754676</v>
       </c>
       <c r="H10" s="1">
-        <v>920.830000</v>
+        <v>920.83</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.121000</v>
+        <v>-150.12100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>45926.961033</v>
@@ -2567,58 +2983,58 @@
         <v>12.757489</v>
       </c>
       <c r="M10" s="1">
-        <v>941.969000</v>
+        <v>941.96900000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.716000</v>
+        <v>-111.71599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>45937.570428</v>
+        <v>45937.570427999999</v>
       </c>
       <c r="Q10" s="1">
         <v>12.760436</v>
       </c>
       <c r="R10" s="1">
-        <v>949.074000</v>
+        <v>949.07399999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.015500</v>
+        <v>-99.015500000000003</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>45948.100531</v>
+        <v>45948.100530999996</v>
       </c>
       <c r="V10" s="1">
         <v>12.763361</v>
       </c>
       <c r="W10" s="1">
-        <v>956.440000</v>
+        <v>956.44</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.333300</v>
+        <v>-87.333299999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>45958.421285</v>
+        <v>45958.421284999997</v>
       </c>
       <c r="AA10" s="1">
         <v>12.766228</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.702000</v>
+        <v>964.702</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.422200</v>
+        <v>-79.422200000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>45968.895762</v>
@@ -2627,375 +3043,375 @@
         <v>12.769138</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.046000</v>
+        <v>970.04600000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.466000</v>
+        <v>-79.465999999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>45979.349940</v>
+        <v>45979.34994</v>
       </c>
       <c r="AK10" s="1">
-        <v>12.772042</v>
+        <v>12.772042000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.476000</v>
+        <v>978.476</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.812800</v>
+        <v>-87.812799999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>45989.732726</v>
+        <v>45989.732726000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.774926</v>
+        <v>12.774926000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.920000</v>
+        <v>987.92</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.069000</v>
+        <v>-103.069</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>46001.132861</v>
+        <v>46001.132860999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>12.778092</v>
+        <v>12.778091999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.450000</v>
+        <v>999.45</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.932000</v>
+        <v>-124.932</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>46012.157356</v>
+        <v>46012.157356000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.781155</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.856000</v>
+        <v>-143.85599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>46022.826762</v>
+        <v>46022.826761999997</v>
       </c>
       <c r="BE10" s="1">
         <v>12.784119</v>
       </c>
       <c r="BF10" s="1">
-        <v>1054.700000</v>
+        <v>1054.7</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.599000</v>
+        <v>-229.59899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>46033.648517</v>
+        <v>46033.648517000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>12.787125</v>
       </c>
       <c r="BK10" s="1">
-        <v>1134.400000</v>
+        <v>1134.4000000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.258000</v>
+        <v>-367.25799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>46043.866560</v>
+        <v>46043.866560000002</v>
       </c>
       <c r="BO10" s="1">
         <v>12.789963</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.400000</v>
+        <v>1266.4000000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.591000</v>
+        <v>-580.59100000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>46055.055312</v>
+        <v>46055.055311999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.793071</v>
+        <v>12.793070999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1414.780000</v>
+        <v>1414.78</v>
       </c>
       <c r="BV10" s="1">
-        <v>-808.768000</v>
+        <v>-808.76800000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>46065.843896</v>
+        <v>46065.843895999998</v>
       </c>
       <c r="BY10" s="1">
         <v>12.796068</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1578.130000</v>
+        <v>1578.13</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>46077.640147</v>
+        <v>46077.640146999998</v>
       </c>
       <c r="CD10" s="1">
         <v>12.799344</v>
       </c>
       <c r="CE10" s="1">
-        <v>1992.240000</v>
+        <v>1992.24</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1606.250000</v>
+        <v>-1606.25</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>45906.762916</v>
       </c>
       <c r="B11" s="1">
-        <v>12.751879</v>
+        <v>12.751879000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>906.660000</v>
+        <v>906.66</v>
       </c>
       <c r="D11" s="1">
-        <v>-175.265000</v>
+        <v>-175.26499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>45917.183862</v>
+        <v>45917.183861999998</v>
       </c>
       <c r="G11" s="1">
         <v>12.754773</v>
       </c>
       <c r="H11" s="1">
-        <v>921.141000</v>
+        <v>921.14099999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.579000</v>
+        <v>-150.57900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>45927.391561</v>
+        <v>45927.391560999997</v>
       </c>
       <c r="L11" s="1">
         <v>12.757609</v>
       </c>
       <c r="M11" s="1">
-        <v>941.994000</v>
+        <v>941.99400000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.767000</v>
+        <v>-111.767</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>45937.847196</v>
+        <v>45937.847196000002</v>
       </c>
       <c r="Q11" s="1">
         <v>12.760513</v>
       </c>
       <c r="R11" s="1">
-        <v>949.084000</v>
+        <v>949.08399999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.000900</v>
+        <v>-99.000900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>45948.376765</v>
+        <v>45948.376765000001</v>
       </c>
       <c r="V11" s="1">
-        <v>12.763438</v>
+        <v>12.763438000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>956.449000</v>
+        <v>956.44899999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.487400</v>
+        <v>-87.487399999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>45958.773904</v>
+        <v>45958.773904000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.766326</v>
+        <v>12.766325999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.653000</v>
+        <v>964.65300000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.440800</v>
+        <v>-79.440799999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>45969.232049</v>
+        <v>45969.232048999998</v>
       </c>
       <c r="AF11" s="1">
         <v>12.769231</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.117000</v>
+        <v>970.11699999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.558600</v>
+        <v>-79.558599999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>45979.696645</v>
+        <v>45979.696645000004</v>
       </c>
       <c r="AK11" s="1">
         <v>12.772138</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.482000</v>
+        <v>978.48199999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.851200</v>
+        <v>-87.851200000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>45990.449911</v>
+        <v>45990.449911000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.775125</v>
+        <v>12.775124999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.901000</v>
+        <v>987.90099999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.094000</v>
+        <v>-103.09399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>46001.545447</v>
+        <v>46001.545446999997</v>
       </c>
       <c r="AU11" s="1">
         <v>12.778207</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.451000</v>
+        <v>999.45100000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.913000</v>
+        <v>-124.913</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>46012.517914</v>
+        <v>46012.517913999996</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.781255</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.150000</v>
+        <v>1009.15</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.888000</v>
+        <v>-143.88800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>46023.188842</v>
+        <v>46023.188842000003</v>
       </c>
       <c r="BE11" s="1">
         <v>12.784219</v>
       </c>
       <c r="BF11" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.598000</v>
+        <v>-229.59800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>46034.334484</v>
+        <v>46034.334483999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.787315</v>
       </c>
       <c r="BK11" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.304000</v>
+        <v>-367.30399999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>46044.581789</v>
+        <v>46044.581789000003</v>
       </c>
       <c r="BO11" s="1">
         <v>12.790162</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.390000</v>
+        <v>1266.3900000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.560000</v>
+        <v>-580.55999999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>46055.171874</v>
@@ -3004,285 +3420,285 @@
         <v>12.793103</v>
       </c>
       <c r="BU11" s="1">
-        <v>1414.750000</v>
+        <v>1414.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-808.713000</v>
+        <v>-808.71299999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>46065.958370</v>
+        <v>46065.95837</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.796100</v>
+        <v>12.796099999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1578.030000</v>
+        <v>1578.03</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1048.030000</v>
+        <v>-1048.03</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>46078.170865</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.799492</v>
+        <v>12.799492000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1991.140000</v>
+        <v>1991.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1607.770000</v>
+        <v>-1607.77</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>45907.186005</v>
+        <v>45907.186005000003</v>
       </c>
       <c r="B12" s="1">
         <v>12.751996</v>
       </c>
       <c r="C12" s="1">
-        <v>906.488000</v>
+        <v>906.48800000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>-175.029000</v>
+        <v>-175.029</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>45917.615878</v>
+        <v>45917.615877999997</v>
       </c>
       <c r="G12" s="1">
-        <v>12.754893</v>
+        <v>12.754892999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.937000</v>
+        <v>920.93700000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-150.500000</v>
+        <v>-150.5</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>45927.675241</v>
+        <v>45927.675240999997</v>
       </c>
       <c r="L12" s="1">
         <v>12.757688</v>
       </c>
       <c r="M12" s="1">
-        <v>942.166000</v>
+        <v>942.16600000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.661000</v>
+        <v>-111.661</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>45938.194426</v>
+        <v>45938.194426000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.760610</v>
+        <v>12.76061</v>
       </c>
       <c r="R12" s="1">
-        <v>949.078000</v>
+        <v>949.07799999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.054500</v>
+        <v>-99.054500000000004</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>45948.722013</v>
+        <v>45948.722012999999</v>
       </c>
       <c r="V12" s="1">
         <v>12.763534</v>
       </c>
       <c r="W12" s="1">
-        <v>956.370000</v>
+        <v>956.37</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.385100</v>
+        <v>-87.385099999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>45959.121600</v>
+        <v>45959.121599999999</v>
       </c>
       <c r="AA12" s="1">
         <v>12.766423</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.639000</v>
+        <v>964.63900000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.407000</v>
+        <v>-79.406999999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>45969.924007</v>
+        <v>45969.924007000001</v>
       </c>
       <c r="AF12" s="1">
         <v>12.769423</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.128000</v>
+        <v>970.12800000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.552700</v>
+        <v>-79.552700000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>45980.395539</v>
+        <v>45980.395538999997</v>
       </c>
       <c r="AK12" s="1">
         <v>12.772332</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.480000</v>
+        <v>978.48</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.833100</v>
+        <v>-87.833100000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>45990.809013</v>
+        <v>45990.809012999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.775225</v>
+        <v>12.775225000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.907000</v>
+        <v>987.90700000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.072000</v>
+        <v>-103.072</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>46001.909478</v>
+        <v>46001.909478000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.778308</v>
+        <v>12.778308000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.447000</v>
+        <v>999.447</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.933000</v>
+        <v>-124.93300000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>46012.874041</v>
+        <v>46012.874041000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.781354</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.170000</v>
+        <v>1009.17</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.868000</v>
+        <v>-143.86799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>46023.858441</v>
+        <v>46023.858440999997</v>
       </c>
       <c r="BE12" s="1">
         <v>12.784405</v>
       </c>
       <c r="BF12" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.605000</v>
+        <v>-229.60499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>46034.448555</v>
+        <v>46034.448555000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.787347</v>
       </c>
       <c r="BK12" s="1">
-        <v>1134.410000</v>
+        <v>1134.4100000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.270000</v>
+        <v>-367.27</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>46044.701823</v>
+        <v>46044.701823000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.790195</v>
+        <v>12.790195000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.370000</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.566000</v>
+        <v>-580.56600000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>46055.609343</v>
+        <v>46055.609342999996</v>
       </c>
       <c r="BT12" s="1">
         <v>12.793225</v>
       </c>
       <c r="BU12" s="1">
-        <v>1414.840000</v>
+        <v>1414.84</v>
       </c>
       <c r="BV12" s="1">
-        <v>-808.746000</v>
+        <v>-808.74599999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>46066.398321</v>
+        <v>46066.398321000001</v>
       </c>
       <c r="BY12" s="1">
         <v>12.796222</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1048.170000</v>
+        <v>-1048.17</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>46078.712002</v>
@@ -3291,135 +3707,135 @@
         <v>12.799642</v>
       </c>
       <c r="CE12" s="1">
-        <v>1993.150000</v>
+        <v>1993.15</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1606.640000</v>
+        <v>-1606.64</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>45907.461812</v>
+        <v>45907.461812000001</v>
       </c>
       <c r="B13" s="1">
-        <v>12.752073</v>
+        <v>12.752072999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>906.721000</v>
+        <v>906.721</v>
       </c>
       <c r="D13" s="1">
-        <v>-175.109000</v>
+        <v>-175.10900000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>45917.884213</v>
+        <v>45917.884212999998</v>
       </c>
       <c r="G13" s="1">
         <v>12.754968</v>
       </c>
       <c r="H13" s="1">
-        <v>921.046000</v>
+        <v>921.04600000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.042000</v>
+        <v>-150.042</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>45928.018969</v>
+        <v>45928.018968999997</v>
       </c>
       <c r="L13" s="1">
         <v>12.757783</v>
       </c>
       <c r="M13" s="1">
-        <v>942.085000</v>
+        <v>942.08500000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.837000</v>
+        <v>-111.837</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>45938.548538</v>
+        <v>45938.548538000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.760708</v>
+        <v>12.760707999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>949.106000</v>
+        <v>949.10599999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.035400</v>
+        <v>-99.035399999999996</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>45949.063761</v>
+        <v>45949.063760999998</v>
       </c>
       <c r="V13" s="1">
         <v>12.763629</v>
       </c>
       <c r="W13" s="1">
-        <v>956.415000</v>
+        <v>956.41499999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.401200</v>
+        <v>-87.401200000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>45959.815038</v>
+        <v>45959.815038000001</v>
       </c>
       <c r="AA13" s="1">
         <v>12.766615</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.702000</v>
+        <v>964.702</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.381800</v>
+        <v>-79.381799999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>45970.268895</v>
+        <v>45970.268895000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.769519</v>
+        <v>12.769519000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.116000</v>
+        <v>970.11599999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.556300</v>
+        <v>-79.556299999999993</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>45980.741219</v>
+        <v>45980.741219000003</v>
       </c>
       <c r="AK13" s="1">
         <v>12.772428</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.478000</v>
+        <v>978.47799999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.840900</v>
+        <v>-87.840900000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>45991.170629</v>
@@ -3428,136 +3844,136 @@
         <v>12.775325</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.926000</v>
+        <v>987.92600000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.091000</v>
+        <v>-103.09099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>46002.585525</v>
+        <v>46002.585525000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.778496</v>
+        <v>12.778496000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.442000</v>
+        <v>999.44200000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.900000</v>
+        <v>-124.9</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>46013.549096</v>
+        <v>46013.549096000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.781541</v>
+        <v>12.781541000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.120000</v>
+        <v>1009.12</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.863000</v>
+        <v>-143.863</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>46024.304875</v>
+        <v>46024.304875000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.784529</v>
+        <v>12.784528999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.618000</v>
+        <v>-229.61799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>46034.809611</v>
+        <v>46034.809610999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>12.787447</v>
       </c>
       <c r="BK13" s="1">
-        <v>1134.400000</v>
+        <v>1134.4000000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.256000</v>
+        <v>-367.25599999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>46045.113040</v>
+        <v>46045.113039999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.790309</v>
+        <v>12.790309000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.370000</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.571000</v>
+        <v>-580.57100000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>46056.035443</v>
+        <v>46056.035443000001</v>
       </c>
       <c r="BT13" s="1">
         <v>12.793343</v>
       </c>
       <c r="BU13" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="BV13" s="1">
-        <v>-808.779000</v>
+        <v>-808.779</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>46066.845217</v>
+        <v>46066.845217000002</v>
       </c>
       <c r="BY13" s="1">
         <v>12.796346</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1578.140000</v>
+        <v>1578.14</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1047.980000</v>
+        <v>-1047.98</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>46079.252145</v>
+        <v>46079.252144999999</v>
       </c>
       <c r="CD13" s="1">
         <v>12.799792</v>
       </c>
       <c r="CE13" s="1">
-        <v>1991.040000</v>
+        <v>1991.04</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1606.730000</v>
+        <v>-1606.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>45907.802034</v>
       </c>
@@ -3565,148 +3981,148 @@
         <v>12.752167</v>
       </c>
       <c r="C14" s="1">
-        <v>906.702000</v>
+        <v>906.702</v>
       </c>
       <c r="D14" s="1">
-        <v>-175.171000</v>
+        <v>-175.17099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>45918.226454</v>
+        <v>45918.226454000003</v>
       </c>
       <c r="G14" s="1">
         <v>12.755063</v>
       </c>
       <c r="H14" s="1">
-        <v>921.163000</v>
+        <v>921.16300000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-150.206000</v>
+        <v>-150.20599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>45928.364717</v>
+        <v>45928.364716999997</v>
       </c>
       <c r="L14" s="1">
-        <v>12.757879</v>
+        <v>12.757879000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.078000</v>
+        <v>942.07799999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.759000</v>
+        <v>-111.759</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>45939.241977</v>
+        <v>45939.241976999998</v>
       </c>
       <c r="Q14" s="1">
         <v>12.760901</v>
       </c>
       <c r="R14" s="1">
-        <v>949.127000</v>
+        <v>949.12699999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.004200</v>
+        <v>-99.004199999999997</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>45949.754168</v>
+        <v>45949.754167999999</v>
       </c>
       <c r="V14" s="1">
         <v>12.763821</v>
       </c>
       <c r="W14" s="1">
-        <v>956.479000</v>
+        <v>956.47900000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.413100</v>
+        <v>-87.4131</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>45960.164189</v>
+        <v>45960.164189000003</v>
       </c>
       <c r="AA14" s="1">
         <v>12.766712</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.644000</v>
+        <v>964.64400000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.484800</v>
+        <v>-79.484800000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>45970.611424</v>
+        <v>45970.611424000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.769614</v>
+        <v>12.769614000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.058000</v>
+        <v>970.05799999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.512000</v>
+        <v>-79.512</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>45981.094369</v>
+        <v>45981.094368999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.772526</v>
+        <v>12.772525999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.491000</v>
+        <v>978.49099999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.823100</v>
+        <v>-87.823099999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>45991.835733</v>
       </c>
       <c r="AP14" s="1">
-        <v>12.775510</v>
+        <v>12.775510000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.883000</v>
+        <v>987.88300000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.081000</v>
+        <v>-103.081</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>46003.002697</v>
+        <v>46003.002697000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.778612</v>
+        <v>12.778612000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.421000</v>
+        <v>999.42100000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.917000</v>
+        <v>-124.917</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>46013.951878</v>
@@ -3715,315 +4131,315 @@
         <v>12.781653</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.886000</v>
+        <v>-143.886</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>46024.664936</v>
+        <v>46024.664936000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.784629</v>
+        <v>12.784629000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1054.710000</v>
+        <v>1054.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.599000</v>
+        <v>-229.59899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>46035.181611</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.787550</v>
+        <v>12.78755</v>
       </c>
       <c r="BK14" s="1">
-        <v>1134.430000</v>
+        <v>1134.43</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.272000</v>
+        <v>-367.27199999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>46045.508352</v>
+        <v>46045.508351999997</v>
       </c>
       <c r="BO14" s="1">
         <v>12.790419</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.370000</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.616000</v>
+        <v>-580.61599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>46056.446590</v>
+        <v>46056.44659</v>
       </c>
       <c r="BT14" s="1">
         <v>12.793457</v>
       </c>
       <c r="BU14" s="1">
-        <v>1414.920000</v>
+        <v>1414.92</v>
       </c>
       <c r="BV14" s="1">
-        <v>-808.746000</v>
+        <v>-808.74599999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>46067.694370</v>
+        <v>46067.694369999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.796582</v>
+        <v>12.796582000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>46079.794768</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.799943</v>
+        <v>12.799943000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1992.840000</v>
+        <v>1992.84</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1607.900000</v>
+        <v>-1607.9</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>45908.143778</v>
+        <v>45908.143777999998</v>
       </c>
       <c r="B15" s="1">
         <v>12.752262</v>
       </c>
       <c r="C15" s="1">
-        <v>906.582000</v>
+        <v>906.58199999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-175.135000</v>
+        <v>-175.13499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>45918.801813</v>
+        <v>45918.801812999998</v>
       </c>
       <c r="G15" s="1">
-        <v>12.755223</v>
+        <v>12.755223000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>921.076000</v>
+        <v>921.07600000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.677000</v>
+        <v>-150.67699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>45929.062550</v>
+        <v>45929.062550000002</v>
       </c>
       <c r="L15" s="1">
         <v>12.758073</v>
       </c>
       <c r="M15" s="1">
-        <v>942.164000</v>
+        <v>942.16399999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.710000</v>
+        <v>-111.71</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>45939.593113</v>
+        <v>45939.593113000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.760998</v>
+        <v>12.760998000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>949.099000</v>
+        <v>949.09900000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.077400</v>
+        <v>-99.077399999999997</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>45950.092924</v>
+        <v>45950.092923999997</v>
       </c>
       <c r="V15" s="1">
-        <v>12.763915</v>
+        <v>12.763915000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>956.370000</v>
+        <v>956.37</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.501700</v>
+        <v>-87.5017</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>45960.517341</v>
+        <v>45960.517340999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.766810</v>
+        <v>12.76681</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.658000</v>
+        <v>964.65800000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.403900</v>
+        <v>-79.403899999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>45971.265151</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.769796</v>
+        <v>12.769795999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.070000</v>
+        <v>970.07</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.582700</v>
+        <v>-79.582700000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>45981.747633</v>
+        <v>45981.747632999999</v>
       </c>
       <c r="AK15" s="1">
         <v>12.772708</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.499000</v>
+        <v>978.49900000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.825300</v>
+        <v>-87.825299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>45992.276708</v>
+        <v>45992.276707999998</v>
       </c>
       <c r="AP15" s="1">
         <v>12.775632</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.897000</v>
+        <v>987.89700000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.066000</v>
+        <v>-103.066</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>46003.387589</v>
+        <v>46003.387588999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.778719</v>
+        <v>12.778719000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.439000</v>
+        <v>999.43899999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.942000</v>
+        <v>-124.94199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>46014.339718</v>
+        <v>46014.339718000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>12.781761</v>
+        <v>12.781760999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.160000</v>
+        <v>1009.16</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.884000</v>
+        <v>-143.88399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>46025.028999</v>
+        <v>46025.028999000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.784730</v>
+        <v>12.78473</v>
       </c>
       <c r="BF15" s="1">
-        <v>1054.680000</v>
+        <v>1054.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.608000</v>
+        <v>-229.608</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>46035.609692</v>
+        <v>46035.609691999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.787669</v>
+        <v>12.787668999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.281000</v>
+        <v>-367.28100000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>46045.929421</v>
+        <v>46045.929421000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>12.790536</v>
+        <v>12.790535999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.400000</v>
+        <v>1266.4000000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.623000</v>
+        <v>-580.62300000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>46056.880589</v>
@@ -4032,105 +4448,105 @@
         <v>12.793578</v>
       </c>
       <c r="BU15" s="1">
-        <v>1414.990000</v>
+        <v>1414.99</v>
       </c>
       <c r="BV15" s="1">
-        <v>-808.725000</v>
+        <v>-808.72500000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>46068.122910</v>
+        <v>46068.122909999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.796701</v>
+        <v>12.796701000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1578.120000</v>
+        <v>1578.12</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1047.960000</v>
+        <v>-1047.96</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>46080.333422</v>
+        <v>46080.333422000003</v>
       </c>
       <c r="CD15" s="1">
         <v>12.800093</v>
       </c>
       <c r="CE15" s="1">
-        <v>1991.840000</v>
+        <v>1991.84</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1606.130000</v>
+        <v>-1606.13</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>45908.828258</v>
+        <v>45908.828258000001</v>
       </c>
       <c r="B16" s="1">
         <v>12.752452</v>
       </c>
       <c r="C16" s="1">
-        <v>906.490000</v>
+        <v>906.49</v>
       </c>
       <c r="D16" s="1">
-        <v>-175.198000</v>
+        <v>-175.19800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>45918.920356</v>
+        <v>45918.920356000002</v>
       </c>
       <c r="G16" s="1">
-        <v>12.755256</v>
+        <v>12.755255999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>920.940000</v>
+        <v>920.94</v>
       </c>
       <c r="I16" s="1">
-        <v>-150.428000</v>
+        <v>-150.428</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>45929.414742</v>
+        <v>45929.414742000001</v>
       </c>
       <c r="L16" s="1">
-        <v>12.758171</v>
+        <v>12.758171000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.966000</v>
+        <v>941.96600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.614000</v>
+        <v>-111.614</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>45939.940841</v>
+        <v>45939.940841000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.761095</v>
+        <v>12.761094999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>949.090000</v>
+        <v>949.09</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.038900</v>
+        <v>-99.038899999999998</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>45950.440123</v>
@@ -4139,163 +4555,163 @@
         <v>12.764011</v>
       </c>
       <c r="W16" s="1">
-        <v>956.448000</v>
+        <v>956.44799999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.449800</v>
+        <v>-87.449799999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>45961.179500</v>
+        <v>45961.179499999998</v>
       </c>
       <c r="AA16" s="1">
         <v>12.766994</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.658000</v>
+        <v>964.65800000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.421400</v>
+        <v>-79.421400000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>45971.643102</v>
+        <v>45971.643102000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.769901</v>
+        <v>12.769901000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.103000</v>
+        <v>970.10299999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.558700</v>
+        <v>-79.558700000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>45982.136496</v>
+        <v>45982.136495999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.772816</v>
+        <v>12.772816000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.496000</v>
+        <v>978.49599999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.841600</v>
+        <v>-87.8416</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>45992.638790</v>
+        <v>45992.638789999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>12.775733</v>
+        <v>12.775733000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.916000</v>
+        <v>987.91600000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.089000</v>
+        <v>-103.089</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>46003.751621</v>
+        <v>46003.751621000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.778820</v>
+        <v>12.77882</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.437000</v>
+        <v>999.43700000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.925000</v>
+        <v>-124.925</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>46014.697361</v>
+        <v>46014.697360999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.781860</v>
+        <v>12.78186</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.170000</v>
+        <v>1009.17</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.888000</v>
+        <v>-143.88800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>46025.455064</v>
+        <v>46025.455064000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>12.784849</v>
+        <v>12.784848999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1054.680000</v>
+        <v>1054.68</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.582000</v>
+        <v>-229.58199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>46035.935529</v>
+        <v>46035.935529000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>12.787760</v>
+        <v>12.78776</v>
       </c>
       <c r="BK16" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.251000</v>
+        <v>-367.25099999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>46046.328793</v>
+        <v>46046.328793000001</v>
       </c>
       <c r="BO16" s="1">
         <v>12.790647</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.380000</v>
+        <v>1266.3800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.644000</v>
+        <v>-580.64400000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>46057.308173</v>
+        <v>46057.308172999998</v>
       </c>
       <c r="BT16" s="1">
         <v>12.793697</v>
       </c>
       <c r="BU16" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="BV16" s="1">
-        <v>-808.813000</v>
+        <v>-808.81299999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>46068.570302</v>
@@ -4304,75 +4720,75 @@
         <v>12.796825</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1578.040000</v>
+        <v>1578.04</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1047.920000</v>
+        <v>-1047.92</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>46080.873598</v>
+        <v>46080.873597999998</v>
       </c>
       <c r="CD16" s="1">
         <v>12.800243</v>
       </c>
       <c r="CE16" s="1">
-        <v>1991.510000</v>
+        <v>1991.51</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1607.990000</v>
+        <v>-1607.99</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>45909.171490</v>
+        <v>45909.171490000001</v>
       </c>
       <c r="B17" s="1">
-        <v>12.752548</v>
+        <v>12.752548000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>906.603000</v>
+        <v>906.60299999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.298000</v>
+        <v>-175.298</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>45919.264581</v>
+        <v>45919.264581000003</v>
       </c>
       <c r="G17" s="1">
-        <v>12.755351</v>
+        <v>12.755350999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>921.277000</v>
+        <v>921.27700000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-150.600000</v>
+        <v>-150.6</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>45929.758965</v>
+        <v>45929.758965000001</v>
       </c>
       <c r="L17" s="1">
-        <v>12.758266</v>
+        <v>12.758266000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>942.132000</v>
+        <v>942.13199999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.656000</v>
+        <v>-111.65600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>45940.597016</v>
@@ -4381,163 +4797,163 @@
         <v>12.761277</v>
       </c>
       <c r="R17" s="1">
-        <v>949.057000</v>
+        <v>949.05700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.959100</v>
+        <v>-98.959100000000007</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>45951.138491</v>
+        <v>45951.138490999998</v>
       </c>
       <c r="V17" s="1">
         <v>12.764205</v>
       </c>
       <c r="W17" s="1">
-        <v>956.345000</v>
+        <v>956.34500000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.418700</v>
+        <v>-87.418700000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>45961.558939</v>
+        <v>45961.558939000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.767100</v>
+        <v>12.767099999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.690000</v>
+        <v>964.69</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.450900</v>
+        <v>-79.450900000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>45971.985573</v>
+        <v>45971.985572999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>12.769996</v>
+        <v>12.769996000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.127000</v>
+        <v>970.12699999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.587200</v>
+        <v>-79.587199999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>45982.485152</v>
+        <v>45982.485152000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.772913</v>
+        <v>12.772913000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.480000</v>
+        <v>978.48</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.830100</v>
+        <v>-87.830100000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>45993.000225</v>
+        <v>45993.000225000003</v>
       </c>
       <c r="AP17" s="1">
         <v>12.775833</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.917000</v>
+        <v>987.91700000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.100000</v>
+        <v>-103.1</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>46004.172227</v>
+        <v>46004.172227000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.778937</v>
+        <v>12.778937000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.453000</v>
+        <v>999.45299999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.939000</v>
+        <v>-124.93899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>46015.122900</v>
+        <v>46015.122900000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.781979</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.862000</v>
+        <v>-143.86199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>46025.749225</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.784930</v>
+        <v>12.784929999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1054.660000</v>
+        <v>1054.6600000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.588000</v>
+        <v>-229.58799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>46036.320426</v>
+        <v>46036.320425999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.787867</v>
       </c>
       <c r="BK17" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.261000</v>
+        <v>-367.26100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>46046.748812</v>
+        <v>46046.748811999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.790764</v>
+        <v>12.790763999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.340000</v>
+        <v>1266.3399999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.636000</v>
+        <v>-580.63599999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>46057.718364</v>
@@ -4546,270 +4962,270 @@
         <v>12.793811</v>
       </c>
       <c r="BU17" s="1">
-        <v>1415.080000</v>
+        <v>1415.08</v>
       </c>
       <c r="BV17" s="1">
-        <v>-808.853000</v>
+        <v>-808.85299999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>46069.001358</v>
+        <v>46069.001358000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.796945</v>
+        <v>12.796944999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1578.160000</v>
+        <v>1578.16</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1048.110000</v>
+        <v>-1048.1099999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>46081.412717</v>
+        <v>46081.412716999999</v>
       </c>
       <c r="CD17" s="1">
         <v>12.800392</v>
       </c>
       <c r="CE17" s="1">
-        <v>1992.830000</v>
+        <v>1992.83</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1606.580000</v>
+        <v>-1606.58</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>45909.513232</v>
+        <v>45909.513231999998</v>
       </c>
       <c r="B18" s="1">
-        <v>12.752643</v>
+        <v>12.752643000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>906.680000</v>
+        <v>906.68</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.132000</v>
+        <v>-175.13200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>45919.927235</v>
+        <v>45919.927235000003</v>
       </c>
       <c r="G18" s="1">
         <v>12.755535</v>
       </c>
       <c r="H18" s="1">
-        <v>920.684000</v>
+        <v>920.68399999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-150.867000</v>
+        <v>-150.86699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>45930.422401</v>
+        <v>45930.422401000003</v>
       </c>
       <c r="L18" s="1">
-        <v>12.758451</v>
+        <v>12.758451000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.055000</v>
+        <v>942.05499999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.835000</v>
+        <v>-111.83499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>45940.985911</v>
+        <v>45940.985911000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>12.761385</v>
+        <v>12.761385000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.086000</v>
+        <v>949.08600000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.933400</v>
+        <v>-98.933400000000006</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>45951.467834</v>
+        <v>45951.467834000003</v>
       </c>
       <c r="V18" s="1">
-        <v>12.764297</v>
+        <v>12.764296999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>956.441000</v>
+        <v>956.44100000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.403900</v>
+        <v>-87.403899999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>45961.909650</v>
+        <v>45961.909650000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.767197</v>
+        <v>12.767196999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.641000</v>
+        <v>964.64099999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.463400</v>
+        <v>-79.463399999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>45972.335518</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.770093</v>
+        <v>12.770092999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.099000</v>
+        <v>970.09900000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.571000</v>
+        <v>-79.570999999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>45982.835328</v>
+        <v>45982.835328000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.773010</v>
+        <v>12.773009999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.497000</v>
+        <v>978.49699999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.848300</v>
+        <v>-87.848299999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>45993.424419</v>
+        <v>45993.424419000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.775951</v>
+        <v>12.775950999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.904000</v>
+        <v>987.904</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.086000</v>
+        <v>-103.086</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>46004.482546</v>
+        <v>46004.482545999999</v>
       </c>
       <c r="AU18" s="1">
         <v>12.779023</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.434000</v>
+        <v>999.43399999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.920000</v>
+        <v>-124.92</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>46015.413588</v>
+        <v>46015.413588000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.782059</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.150000</v>
+        <v>1009.15</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.896000</v>
+        <v>-143.89599999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>46026.111270</v>
+        <v>46026.111270000001</v>
       </c>
       <c r="BE18" s="1">
         <v>12.785031</v>
       </c>
       <c r="BF18" s="1">
-        <v>1054.680000</v>
+        <v>1054.68</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.600000</v>
+        <v>-229.6</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>46036.708827</v>
+        <v>46036.708827000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.787975</v>
+        <v>12.787974999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.250000</v>
+        <v>-367.25</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>46047.143130</v>
+        <v>46047.143129999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.790873</v>
+        <v>12.790872999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.370000</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.623000</v>
+        <v>-580.62300000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>46058.148897</v>
+        <v>46058.148896999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.793930</v>
+        <v>12.79393</v>
       </c>
       <c r="BU18" s="1">
-        <v>1415.080000</v>
+        <v>1415.08</v>
       </c>
       <c r="BV18" s="1">
-        <v>-808.900000</v>
+        <v>-808.9</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>46069.423917</v>
@@ -4818,195 +5234,195 @@
         <v>12.797062</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1578.160000</v>
+        <v>1578.16</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1047.990000</v>
+        <v>-1047.99</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>46081.952892</v>
+        <v>46081.952892000001</v>
       </c>
       <c r="CD18" s="1">
         <v>12.800542</v>
       </c>
       <c r="CE18" s="1">
-        <v>1990.940000</v>
+        <v>1990.94</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1606.800000</v>
+        <v>-1606.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>45910.169439</v>
+        <v>45910.169438999998</v>
       </c>
       <c r="B19" s="1">
         <v>12.752825</v>
       </c>
       <c r="C19" s="1">
-        <v>906.781000</v>
+        <v>906.78099999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-174.909000</v>
+        <v>-174.90899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>45920.299235</v>
+        <v>45920.299234999999</v>
       </c>
       <c r="G19" s="1">
         <v>12.755639</v>
       </c>
       <c r="H19" s="1">
-        <v>920.894000</v>
+        <v>920.89400000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-150.855000</v>
+        <v>-150.85499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>45930.791143</v>
+        <v>45930.791143000002</v>
       </c>
       <c r="L19" s="1">
-        <v>12.758553</v>
+        <v>12.758552999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.158000</v>
+        <v>942.15800000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.711000</v>
+        <v>-111.711</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>45941.334566</v>
+        <v>45941.334565999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.761482</v>
+        <v>12.761482000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>949.119000</v>
+        <v>949.11900000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.989300</v>
+        <v>-98.9893</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>45951.810568</v>
+        <v>45951.810568000001</v>
       </c>
       <c r="V19" s="1">
-        <v>12.764392</v>
+        <v>12.764392000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>956.329000</v>
+        <v>956.32899999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.287200</v>
+        <v>-87.287199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>45962.256849</v>
+        <v>45962.256848999998</v>
       </c>
       <c r="AA19" s="1">
         <v>12.767294</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.634000</v>
+        <v>964.63400000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.435500</v>
+        <v>-79.435500000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>45972.758605</v>
+        <v>45972.758605000003</v>
       </c>
       <c r="AF19" s="1">
         <v>12.770211</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.100000</v>
+        <v>970.1</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.554700</v>
+        <v>-79.554699999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>45983.268374</v>
+        <v>45983.268373999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.773130</v>
+        <v>12.77313</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.480000</v>
+        <v>978.48</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.799900</v>
+        <v>-87.799899999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>45993.718545</v>
+        <v>45993.718545000003</v>
       </c>
       <c r="AP19" s="1">
         <v>12.776033</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.899000</v>
+        <v>987.899</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.080000</v>
+        <v>-103.08</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>46004.845795</v>
+        <v>46004.845795000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.779124</v>
+        <v>12.779123999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.435000</v>
+        <v>999.43499999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.903000</v>
+        <v>-124.90300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>46015.772165</v>
+        <v>46015.772165000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>12.782159</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.120000</v>
+        <v>1009.12</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.866000</v>
+        <v>-143.86600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>46026.472854</v>
@@ -5015,330 +5431,330 @@
         <v>12.785131</v>
       </c>
       <c r="BF19" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.580000</v>
+        <v>-229.58</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>46037.459736</v>
+        <v>46037.459735999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>12.788183</v>
       </c>
       <c r="BK19" s="1">
-        <v>1134.440000</v>
+        <v>1134.44</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.275000</v>
+        <v>-367.27499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>46047.564731</v>
+        <v>46047.564730999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.790990</v>
+        <v>12.790990000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.380000</v>
+        <v>1266.3800000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.600000</v>
+        <v>-580.6</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>46058.574924</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.794049</v>
+        <v>12.794048999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1415.130000</v>
+        <v>1415.13</v>
       </c>
       <c r="BV19" s="1">
-        <v>-808.837000</v>
+        <v>-808.83699999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>46069.846540</v>
+        <v>46069.846539999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.797180</v>
+        <v>12.797180000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1578.110000</v>
+        <v>1578.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1048.050000</v>
+        <v>-1048.05</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>46082.492200</v>
+        <v>46082.492200000001</v>
       </c>
       <c r="CD19" s="1">
         <v>12.800692</v>
       </c>
       <c r="CE19" s="1">
-        <v>1992.970000</v>
+        <v>1992.97</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1607.770000</v>
+        <v>-1607.77</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>45910.535523</v>
+        <v>45910.535522999999</v>
       </c>
       <c r="B20" s="1">
         <v>12.752927</v>
       </c>
       <c r="C20" s="1">
-        <v>906.745000</v>
+        <v>906.745</v>
       </c>
       <c r="D20" s="1">
-        <v>-175.004000</v>
+        <v>-175.00399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>45920.641970</v>
+        <v>45920.641969999997</v>
       </c>
       <c r="G20" s="1">
         <v>12.755734</v>
       </c>
       <c r="H20" s="1">
-        <v>920.961000</v>
+        <v>920.96100000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-150.801000</v>
+        <v>-150.80099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>45931.139073</v>
+        <v>45931.139072999998</v>
       </c>
       <c r="L20" s="1">
-        <v>12.758650</v>
+        <v>12.758649999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>942.176000</v>
+        <v>942.17600000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.755000</v>
+        <v>-111.755</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>45941.687718</v>
+        <v>45941.687718000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.761580</v>
+        <v>12.76158</v>
       </c>
       <c r="R20" s="1">
-        <v>949.117000</v>
+        <v>949.11699999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.997900</v>
+        <v>-98.997900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>45952.241097</v>
+        <v>45952.241096999998</v>
       </c>
       <c r="V20" s="1">
-        <v>12.764511</v>
+        <v>12.764511000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>956.457000</v>
+        <v>956.45699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.412800</v>
+        <v>-87.412800000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>45962.673975</v>
+        <v>45962.673974999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.767409</v>
+        <v>12.767409000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.621000</v>
+        <v>964.62099999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.347600</v>
+        <v>-79.3476</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>45973.037884</v>
+        <v>45973.037883999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>12.770288</v>
+        <v>12.770288000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.090000</v>
+        <v>970.09</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.739800</v>
+        <v>-79.739800000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>45983.545104</v>
+        <v>45983.545103999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.773207</v>
+        <v>12.773206999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.487000</v>
+        <v>978.48699999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.837800</v>
+        <v>-87.837800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>45994.079168</v>
+        <v>45994.079167999997</v>
       </c>
       <c r="AP20" s="1">
         <v>12.776133</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.896000</v>
+        <v>987.89599999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.083000</v>
+        <v>-103.083</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>46005.210850</v>
+        <v>46005.210850000003</v>
       </c>
       <c r="AU20" s="1">
         <v>12.779225</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.424000</v>
+        <v>999.42399999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.918000</v>
+        <v>-124.91800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>46016.132259</v>
+        <v>46016.132258999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.782259</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.150000</v>
+        <v>1009.15</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.886000</v>
+        <v>-143.886</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>46027.195061</v>
+        <v>46027.195060999999</v>
       </c>
       <c r="BE20" s="1">
         <v>12.785332</v>
       </c>
       <c r="BF20" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.622000</v>
+        <v>-229.62200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>46037.859015</v>
+        <v>46037.859015000002</v>
       </c>
       <c r="BJ20" s="1">
         <v>12.788294</v>
       </c>
       <c r="BK20" s="1">
-        <v>1134.400000</v>
+        <v>1134.4000000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.254000</v>
+        <v>-367.25400000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>46047.961068</v>
+        <v>46047.961067999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.791100</v>
+        <v>12.7911</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.370000</v>
+        <v>1266.3699999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.629000</v>
+        <v>-580.62900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>46058.992059</v>
+        <v>46058.992058999997</v>
       </c>
       <c r="BT20" s="1">
         <v>12.794164</v>
       </c>
       <c r="BU20" s="1">
-        <v>1415.120000</v>
+        <v>1415.12</v>
       </c>
       <c r="BV20" s="1">
-        <v>-808.894000</v>
+        <v>-808.89400000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>46070.610178</v>
+        <v>46070.610178000003</v>
       </c>
       <c r="BY20" s="1">
         <v>12.797392</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>46083.381835</v>
@@ -5347,497 +5763,497 @@
         <v>12.800939</v>
       </c>
       <c r="CE20" s="1">
-        <v>1991.150000</v>
+        <v>1991.15</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1607.710000</v>
+        <v>-1607.71</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>45910.882190</v>
+        <v>45910.882189999997</v>
       </c>
       <c r="B21" s="1">
-        <v>12.753023</v>
+        <v>12.753023000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>906.679000</v>
+        <v>906.67899999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-175.020000</v>
+        <v>-175.02</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>45920.983219</v>
+        <v>45920.983219000002</v>
       </c>
       <c r="G21" s="1">
         <v>12.755829</v>
       </c>
       <c r="H21" s="1">
-        <v>920.948000</v>
+        <v>920.94799999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-150.532000</v>
+        <v>-150.53200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>45931.485507</v>
+        <v>45931.485506999998</v>
       </c>
       <c r="L21" s="1">
         <v>12.758746</v>
       </c>
       <c r="M21" s="1">
-        <v>942.073000</v>
+        <v>942.07299999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.755000</v>
+        <v>-111.755</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>45942.112325</v>
+        <v>45942.112325000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.761698</v>
+        <v>12.761698000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>949.086000</v>
+        <v>949.08600000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.028700</v>
+        <v>-99.028700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>45952.501993</v>
+        <v>45952.501992999998</v>
       </c>
       <c r="V21" s="1">
-        <v>12.764584</v>
+        <v>12.764583999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>956.408000</v>
+        <v>956.40800000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.276200</v>
+        <v>-87.276200000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>45962.965131</v>
+        <v>45962.965130999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.767490</v>
+        <v>12.76749</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.647000</v>
+        <v>964.64700000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.374100</v>
+        <v>-79.374099999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>45973.380092</v>
+        <v>45973.380091999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.770383</v>
+        <v>12.770383000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.194000</v>
+        <v>970.19399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.673900</v>
+        <v>-79.673900000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>45983.892303</v>
+        <v>45983.892303000001</v>
       </c>
       <c r="AK21" s="1">
         <v>12.773303</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.480000</v>
+        <v>978.48</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.853100</v>
+        <v>-87.853099999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>45994.440224</v>
+        <v>45994.440223999998</v>
       </c>
       <c r="AP21" s="1">
         <v>12.776233</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.906000</v>
+        <v>987.90599999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.084000</v>
+        <v>-103.084</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>46005.938513</v>
+        <v>46005.938513000001</v>
       </c>
       <c r="AU21" s="1">
         <v>12.779427</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.430000</v>
+        <v>999.43</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.908000</v>
+        <v>-124.908</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>46016.855922</v>
+        <v>46016.855922000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>12.782460</v>
+        <v>12.78246</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.130000</v>
+        <v>1009.13</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.876000</v>
+        <v>-143.876</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>46027.552677</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.785431</v>
+        <v>12.785431000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.607000</v>
+        <v>-229.607</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>46038.235974</v>
+        <v>46038.235974000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>12.788399</v>
       </c>
       <c r="BK21" s="1">
-        <v>1134.430000</v>
+        <v>1134.43</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.291000</v>
+        <v>-367.291</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>46048.382633</v>
+        <v>46048.382633000001</v>
       </c>
       <c r="BO21" s="1">
         <v>12.791217</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.390000</v>
+        <v>1266.3900000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.573000</v>
+        <v>-580.57299999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>46059.737545</v>
+        <v>46059.737545000004</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.794372</v>
+        <v>12.794371999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1415.180000</v>
+        <v>1415.18</v>
       </c>
       <c r="BV21" s="1">
-        <v>-808.960000</v>
+        <v>-808.96</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>46070.721980</v>
+        <v>46070.721980000002</v>
       </c>
       <c r="BY21" s="1">
         <v>12.797423</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1578.100000</v>
+        <v>1578.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>46083.571325</v>
+        <v>46083.571324999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.800992</v>
+        <v>12.800992000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1990.990000</v>
+        <v>1990.99</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1607.590000</v>
+        <v>-1607.59</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>45911.224430</v>
+        <v>45911.224430000002</v>
       </c>
       <c r="B22" s="1">
-        <v>12.753118</v>
+        <v>12.753118000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>906.767000</v>
+        <v>906.76700000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-175.003000</v>
+        <v>-175.00299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>45921.414772</v>
+        <v>45921.414771999996</v>
       </c>
       <c r="G22" s="1">
-        <v>12.755949</v>
+        <v>12.755948999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>921.001000</v>
+        <v>921.00099999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-150.437000</v>
+        <v>-150.43700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>45931.909129</v>
       </c>
       <c r="L22" s="1">
-        <v>12.758864</v>
+        <v>12.758864000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>942.078000</v>
+        <v>942.07799999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.642000</v>
+        <v>-111.642</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>45942.387112</v>
+        <v>45942.387111999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>12.761774</v>
+        <v>12.761774000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>949.103000</v>
+        <v>949.10299999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.010100</v>
+        <v>-99.010099999999994</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>45952.848733</v>
+        <v>45952.848732999999</v>
       </c>
       <c r="V22" s="1">
-        <v>12.764680</v>
+        <v>12.76468</v>
       </c>
       <c r="W22" s="1">
-        <v>956.483000</v>
+        <v>956.48299999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.216700</v>
+        <v>-87.216700000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>45963.315769</v>
+        <v>45963.315769000001</v>
       </c>
       <c r="AA22" s="1">
         <v>12.767588</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.706000</v>
+        <v>964.70600000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.464400</v>
+        <v>-79.464399999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>45973.725339</v>
+        <v>45973.725338999997</v>
       </c>
       <c r="AF22" s="1">
         <v>12.770479</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.103000</v>
+        <v>970.10299999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.562700</v>
+        <v>-79.562700000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>45984.472621</v>
+        <v>45984.472621000001</v>
       </c>
       <c r="AK22" s="1">
         <v>12.773465</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.478000</v>
+        <v>978.47799999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.832000</v>
+        <v>-87.831999999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>45995.164383</v>
+        <v>45995.164383000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.776435</v>
+        <v>12.776434999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.898000</v>
+        <v>987.89800000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.085000</v>
+        <v>-103.08499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>46006.305026</v>
+        <v>46006.305026000002</v>
       </c>
       <c r="AU22" s="1">
         <v>12.779529</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.434000</v>
+        <v>999.43399999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.920000</v>
+        <v>-124.92</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>46017.297362</v>
+        <v>46017.297361999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.782583</v>
+        <v>12.782583000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.150000</v>
+        <v>1009.15</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.877000</v>
+        <v>-143.87700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>46027.914228</v>
+        <v>46027.914228000001</v>
       </c>
       <c r="BE22" s="1">
         <v>12.785532</v>
       </c>
       <c r="BF22" s="1">
-        <v>1054.710000</v>
+        <v>1054.71</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.593000</v>
+        <v>-229.59299999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>46038.921476</v>
+        <v>46038.921476000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.788589</v>
       </c>
       <c r="BK22" s="1">
-        <v>1134.400000</v>
+        <v>1134.4000000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.274000</v>
+        <v>-367.274</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>46049.094392</v>
+        <v>46049.094391999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.791415</v>
+        <v>12.791415000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.400000</v>
+        <v>1266.4000000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.632000</v>
+        <v>-580.63199999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>46059.850666</v>
+        <v>46059.850665999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>12.794403</v>
+        <v>12.794403000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1415.190000</v>
+        <v>1415.19</v>
       </c>
       <c r="BV22" s="1">
-        <v>-808.991000</v>
+        <v>-808.99099999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>46071.149996</v>
@@ -5846,60 +6262,60 @@
         <v>12.797542</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1578.230000</v>
+        <v>1578.23</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1047.970000</v>
+        <v>-1047.97</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>46084.090154</v>
+        <v>46084.090153999998</v>
       </c>
       <c r="CD22" s="1">
         <v>12.801136</v>
       </c>
       <c r="CE22" s="1">
-        <v>1992.600000</v>
+        <v>1992.6</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1608.100000</v>
+        <v>-1608.1</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>45911.649538</v>
+        <v>45911.649537999998</v>
       </c>
       <c r="B23" s="1">
-        <v>12.753236</v>
+        <v>12.753235999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>906.754000</v>
+        <v>906.75400000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-175.061000</v>
+        <v>-175.06100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>45921.678609</v>
+        <v>45921.678609000002</v>
       </c>
       <c r="G23" s="1">
         <v>12.756022</v>
       </c>
       <c r="H23" s="1">
-        <v>920.843000</v>
+        <v>920.84299999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-150.979000</v>
+        <v>-150.97900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>45932.188338</v>
@@ -5908,163 +6324,163 @@
         <v>12.758941</v>
       </c>
       <c r="M23" s="1">
-        <v>941.951000</v>
+        <v>941.95100000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.733000</v>
+        <v>-111.733</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>45942.736756</v>
+        <v>45942.736755999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.761871</v>
+        <v>12.761870999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>949.085000</v>
+        <v>949.08500000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.017200</v>
+        <v>-99.017200000000003</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>45953.187959</v>
+        <v>45953.187959000003</v>
       </c>
       <c r="V23" s="1">
-        <v>12.764774</v>
+        <v>12.764773999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>956.412000</v>
+        <v>956.41200000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.248500</v>
+        <v>-87.248500000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>45963.663007</v>
+        <v>45963.663007000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.767684</v>
+        <v>12.767683999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.619000</v>
+        <v>964.61900000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.450900</v>
+        <v>-79.450900000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>45974.410779</v>
+        <v>45974.410778999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.770670</v>
+        <v>12.770670000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.070000</v>
+        <v>970.07</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.463300</v>
+        <v>-79.463300000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>45984.586237</v>
+        <v>45984.586237000003</v>
       </c>
       <c r="AK23" s="1">
         <v>12.773496</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.475000</v>
+        <v>978.47500000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.844800</v>
+        <v>-87.844800000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>45995.544320</v>
+        <v>45995.544320000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.776540</v>
+        <v>12.776540000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.916000</v>
+        <v>987.91600000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.075000</v>
+        <v>-103.075</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>46006.665120</v>
+        <v>46006.665119999998</v>
       </c>
       <c r="AU23" s="1">
         <v>12.779629</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.436000</v>
+        <v>999.43600000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.915000</v>
+        <v>-124.91500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>46017.928769</v>
+        <v>46017.928768999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.782758</v>
+        <v>12.782757999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.160000</v>
+        <v>1009.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.895000</v>
+        <v>-143.89500000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>46028.592291</v>
+        <v>46028.592291000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.785720</v>
+        <v>12.78572</v>
       </c>
       <c r="BF23" s="1">
-        <v>1054.690000</v>
+        <v>1054.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.625000</v>
+        <v>-229.625</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>46039.031558</v>
+        <v>46039.031558000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.788620</v>
+        <v>12.78862</v>
       </c>
       <c r="BK23" s="1">
-        <v>1134.430000</v>
+        <v>1134.43</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.255000</v>
+        <v>-367.255</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>46049.216903</v>
@@ -6073,61 +6489,61 @@
         <v>12.791449</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.350000</v>
+        <v>1266.3499999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.595000</v>
+        <v>-580.59500000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>46060.287113</v>
+        <v>46060.287112999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.794524</v>
+        <v>12.794523999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1415.180000</v>
+        <v>1415.18</v>
       </c>
       <c r="BV23" s="1">
-        <v>-808.964000</v>
+        <v>-808.96400000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>46071.574571</v>
+        <v>46071.574570999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>12.797660</v>
+        <v>12.79766</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1578.200000</v>
+        <v>1578.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>46084.608973</v>
+        <v>46084.608973000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.801280</v>
+        <v>12.80128</v>
       </c>
       <c r="CE23" s="1">
-        <v>1993.150000</v>
+        <v>1993.15</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1606.550000</v>
+        <v>-1606.55</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>45911.925809</v>
       </c>
@@ -6135,88 +6551,88 @@
         <v>12.753313</v>
       </c>
       <c r="C24" s="1">
-        <v>906.765000</v>
+        <v>906.76499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.046000</v>
+        <v>-175.04599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>45922.023824</v>
+        <v>45922.023824000004</v>
       </c>
       <c r="G24" s="1">
-        <v>12.756118</v>
+        <v>12.756118000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>920.861000</v>
+        <v>920.86099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-150.489000</v>
+        <v>-150.489</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>45932.527108</v>
+        <v>45932.527108000002</v>
       </c>
       <c r="L24" s="1">
-        <v>12.759035</v>
+        <v>12.759035000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.025000</v>
+        <v>942.02499999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.748000</v>
+        <v>-111.748</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>45943.084452</v>
+        <v>45943.084452000003</v>
       </c>
       <c r="Q24" s="1">
         <v>12.761968</v>
       </c>
       <c r="R24" s="1">
-        <v>949.071000</v>
+        <v>949.07100000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.979800</v>
+        <v>-98.979799999999997</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>45953.874454</v>
+        <v>45953.874453999997</v>
       </c>
       <c r="V24" s="1">
         <v>12.764965</v>
       </c>
       <c r="W24" s="1">
-        <v>956.349000</v>
+        <v>956.34900000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.378100</v>
+        <v>-87.378100000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>45964.358892</v>
+        <v>45964.358891999997</v>
       </c>
       <c r="AA24" s="1">
         <v>12.767877</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.556000</v>
+        <v>964.55600000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.393000</v>
+        <v>-79.393000000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>45974.755995</v>
@@ -6225,270 +6641,270 @@
         <v>12.770766</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.061000</v>
+        <v>970.06100000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.549000</v>
+        <v>-79.549000000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>45984.938874</v>
+        <v>45984.938873999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.773594</v>
+        <v>12.773593999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.487000</v>
+        <v>978.48699999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.834900</v>
+        <v>-87.834900000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>45995.905902</v>
+        <v>45995.905901999999</v>
       </c>
       <c r="AP24" s="1">
         <v>12.776641</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.909000</v>
+        <v>987.90899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.077000</v>
+        <v>-103.077</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>46007.340175</v>
+        <v>46007.340174999998</v>
       </c>
       <c r="AU24" s="1">
         <v>12.779817</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.429000</v>
+        <v>999.42899999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.916000</v>
+        <v>-124.916</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>46018.336977</v>
+        <v>46018.336976999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.782871</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.130000</v>
+        <v>1009.13</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.879000</v>
+        <v>-143.87899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>46029.030269</v>
+        <v>46029.030269000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.785842</v>
+        <v>12.785842000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1054.670000</v>
+        <v>1054.67</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.627000</v>
+        <v>-229.62700000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>46039.384213</v>
+        <v>46039.384212999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.788718</v>
+        <v>12.788717999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1134.420000</v>
+        <v>1134.42</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.256000</v>
+        <v>-367.25599999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>46049.630073</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.791564</v>
+        <v>12.791563999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.390000</v>
+        <v>1266.3900000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.610000</v>
+        <v>-580.61</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>46060.699784</v>
+        <v>46060.699783999997</v>
       </c>
       <c r="BT24" s="1">
         <v>12.794639</v>
       </c>
       <c r="BU24" s="1">
-        <v>1415.140000</v>
+        <v>1415.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-809.035000</v>
+        <v>-809.03499999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>46071.998154</v>
+        <v>46071.998154000001</v>
       </c>
       <c r="BY24" s="1">
         <v>12.797777</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1578.100000</v>
+        <v>1578.1</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1048.030000</v>
+        <v>-1048.03</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>46085.128248</v>
+        <v>46085.128248000001</v>
       </c>
       <c r="CD24" s="1">
         <v>12.801425</v>
       </c>
       <c r="CE24" s="1">
-        <v>1991.210000</v>
+        <v>1991.21</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1606.300000</v>
+        <v>-1606.3</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>45912.264542</v>
+        <v>45912.264541999997</v>
       </c>
       <c r="B25" s="1">
-        <v>12.753407</v>
+        <v>12.753406999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>906.794000</v>
+        <v>906.79399999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-175.090000</v>
+        <v>-175.09</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>45922.365567</v>
+        <v>45922.365567000001</v>
       </c>
       <c r="G25" s="1">
-        <v>12.756213</v>
+        <v>12.756213000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>921.047000</v>
+        <v>921.04700000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-150.377000</v>
+        <v>-150.37700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>45932.879761</v>
+        <v>45932.879760999997</v>
       </c>
       <c r="L25" s="1">
         <v>12.759133</v>
       </c>
       <c r="M25" s="1">
-        <v>942.064000</v>
+        <v>942.06399999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.729000</v>
+        <v>-111.729</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>45943.780340</v>
+        <v>45943.780339999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>12.762161</v>
+        <v>12.762161000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>949.099000</v>
+        <v>949.09900000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.958900</v>
+        <v>-98.9589</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>45954.218184</v>
+        <v>45954.218183999998</v>
       </c>
       <c r="V25" s="1">
-        <v>12.765061</v>
+        <v>12.765060999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>956.323000</v>
+        <v>956.32299999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.322200</v>
+        <v>-87.322199999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>45964.709065</v>
+        <v>45964.709065000003</v>
       </c>
       <c r="AA25" s="1">
         <v>12.767975</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.644000</v>
+        <v>964.64400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.416200</v>
+        <v>-79.416200000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>45975.097241</v>
+        <v>45975.097241000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.770860</v>
+        <v>12.770860000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.129000</v>
+        <v>970.12900000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.563200</v>
+        <v>-79.563199999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>45985.593084</v>
@@ -6497,58 +6913,58 @@
         <v>12.773776</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.471000</v>
+        <v>978.471</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.837000</v>
+        <v>-87.837000000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>45996.580495</v>
+        <v>45996.580495000002</v>
       </c>
       <c r="AP25" s="1">
         <v>12.776828</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.874000</v>
+        <v>987.87400000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.082000</v>
+        <v>-103.08199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>46007.761806</v>
+        <v>46007.761806000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.779934</v>
+        <v>12.779934000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.444000</v>
+        <v>999.44399999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.910000</v>
+        <v>-124.91</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>46018.694619</v>
+        <v>46018.694619000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.782971</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.160000</v>
+        <v>1009.16</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.850000</v>
+        <v>-143.85</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>46029.390818</v>
@@ -6557,347 +6973,348 @@
         <v>12.785942</v>
       </c>
       <c r="BF25" s="1">
-        <v>1054.660000</v>
+        <v>1054.6600000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.601000</v>
+        <v>-229.601</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>46039.762166</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.788823</v>
+        <v>12.788823000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1134.400000</v>
+        <v>1134.4000000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.231000</v>
+        <v>-367.23099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>46050.022407</v>
+        <v>46050.022406999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.791673</v>
+        <v>12.791672999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.360000</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.591000</v>
+        <v>-580.59100000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>46061.130313</v>
+        <v>46061.130313000001</v>
       </c>
       <c r="BT25" s="1">
         <v>12.794758</v>
       </c>
       <c r="BU25" s="1">
-        <v>1415.230000</v>
+        <v>1415.23</v>
       </c>
       <c r="BV25" s="1">
-        <v>-809.093000</v>
+        <v>-809.09299999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>46072.420746</v>
+        <v>46072.420746000003</v>
       </c>
       <c r="BY25" s="1">
         <v>12.797895</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1578.190000</v>
+        <v>1578.19</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1047.900000</v>
+        <v>-1047.9000000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>46085.646103</v>
+        <v>46085.646102999999</v>
       </c>
       <c r="CD25" s="1">
         <v>12.801568</v>
       </c>
       <c r="CE25" s="1">
-        <v>1991.580000</v>
+        <v>1991.58</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1606.000000</v>
+        <v>-1606</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>45912.606780</v>
+        <v>45912.606780000002</v>
       </c>
       <c r="B26" s="1">
-        <v>12.753502</v>
+        <v>12.753501999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>906.717000</v>
+        <v>906.71699999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-175.068000</v>
+        <v>-175.06800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45923.054047</v>
+        <v>45923.054046999998</v>
       </c>
       <c r="G26" s="1">
         <v>12.756404</v>
       </c>
       <c r="H26" s="1">
-        <v>921.043000</v>
+        <v>921.04300000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-150.685000</v>
+        <v>-150.685</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>45933.571218</v>
+        <v>45933.571217999997</v>
       </c>
       <c r="L26" s="1">
         <v>12.759325</v>
       </c>
       <c r="M26" s="1">
-        <v>941.961000</v>
+        <v>941.96100000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.745000</v>
+        <v>-111.745</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>45944.130018</v>
+        <v>45944.130018000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.762258</v>
+        <v>12.762257999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>949.089000</v>
+        <v>949.08900000000006</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.977000</v>
+        <v>-98.977000000000004</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>45954.561877</v>
       </c>
       <c r="V26" s="1">
-        <v>12.765156</v>
+        <v>12.765155999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>956.352000</v>
+        <v>956.35199999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.412200</v>
+        <v>-87.412199999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>45965.060200</v>
+        <v>45965.0602</v>
       </c>
       <c r="AA26" s="1">
         <v>12.768072</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.583000</v>
+        <v>964.58299999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.429500</v>
+        <v>-79.429500000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>45975.751465</v>
+        <v>45975.751465000001</v>
       </c>
       <c r="AF26" s="1">
         <v>12.771042</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.104000</v>
+        <v>970.10400000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.559300</v>
+        <v>-79.559299999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>45985.984240</v>
+        <v>45985.984239999998</v>
       </c>
       <c r="AK26" s="1">
         <v>12.773885</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.488000</v>
+        <v>978.48800000000006</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.835200</v>
+        <v>-87.8352</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>45996.985693</v>
+        <v>45996.985693000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.776940</v>
+        <v>12.77694</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.866000</v>
+        <v>987.86599999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.066000</v>
+        <v>-103.066</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>46008.126336</v>
+        <v>46008.126336000001</v>
       </c>
       <c r="AU26" s="1">
         <v>12.780035</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.439000</v>
+        <v>999.43899999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.912000</v>
+        <v>-124.91200000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>46019.053737</v>
+        <v>46019.053737000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.783070</v>
+        <v>12.78307</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.140000</v>
+        <v>1009.14</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.860000</v>
+        <v>-143.86000000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>46029.752932</v>
+        <v>46029.752932000003</v>
       </c>
       <c r="BE26" s="1">
         <v>12.786042</v>
       </c>
       <c r="BF26" s="1">
-        <v>1054.700000</v>
+        <v>1054.7</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.601000</v>
+        <v>-229.601</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>46040.187237</v>
+        <v>46040.187236999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>12.788941</v>
+        <v>12.788940999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1134.410000</v>
+        <v>1134.4100000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.279000</v>
+        <v>-367.279</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>46050.472278</v>
+        <v>46050.472278000001</v>
       </c>
       <c r="BO26" s="1">
         <v>12.791798</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.390000</v>
+        <v>1266.3900000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.605000</v>
+        <v>-580.60500000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>46061.558359</v>
+        <v>46061.558359000002</v>
       </c>
       <c r="BT26" s="1">
         <v>12.794877</v>
       </c>
       <c r="BU26" s="1">
-        <v>1415.240000</v>
+        <v>1415.24</v>
       </c>
       <c r="BV26" s="1">
-        <v>-809.073000</v>
+        <v>-809.07299999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>46072.835898</v>
+        <v>46072.835897999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>12.798010</v>
+        <v>12.79801</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1578.210000</v>
+        <v>1578.21</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1048.010000</v>
+        <v>-1048.01</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>46086.194679</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.801721</v>
+        <v>12.801721000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1992.900000</v>
+        <v>1992.9</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1606.240000</v>
+        <v>-1606.24</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>